--- a/pomocnicze/BibliografiaMendeley_tabela.xlsx
+++ b/pomocnicze/BibliografiaMendeley_tabela.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\pomocnicze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A810713-D3DE-459C-96DA-B063EB6EB5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFEE606-4E3D-49AC-B888-65540213D211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-98" windowWidth="23183" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="-98" windowWidth="23243" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20230615" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
   <si>
     <t>Alves, H. (2010). Perceived value index in higher education. Innovative Marketing, 6(2), 33–42.</t>
   </si>
@@ -463,6 +464,240 @@
   </si>
   <si>
     <t>Zastempowski, M. (2013). Potencjał innowacyjny małych i średnich przedsiębiorstw na tle liderów polskiej gospodarki w świetle badań empirycznych. International Journal of Contemporary Management, 2013(Numer 12 (2)).</t>
+  </si>
+  <si>
+    <t>Aguillo, I. (2009). Measuring the institution’s footprint in the web. Library Hi Tech, 27(4), 540–556. https://doi.org/10.1108/073788309</t>
+  </si>
+  <si>
+    <t>Aguillo, I. (2023). Methodology of Ranking Web of Universities. Cybermetrics Lab. https://www.webometrics.info/en/Methodology</t>
+  </si>
+  <si>
+    <t>Alkuwaiti, A. (2021). Webometrics Ranking: Change in Methodology &amp; January 2021 Results at Glance. http://www.drahmedalkuwaiti.com/admin/data/form_14936/files/element_4_3f06cedca61fa7fbd8e20020e556832c-54-Change in Metho_Jan 2021 Result 210216.pdf</t>
+  </si>
+  <si>
+    <t>ARWU. (2022a). ARWU World University Ranking 2022. Ranking Shanghai. http://www.shanghairanking.com/rankings/arwu/2022</t>
+  </si>
+  <si>
+    <t>ARWU. (2022b). ARWU World University Rankings 2022 methodology. Ranking Shanghai. http://www.shanghairanking.com/methodology/arwu/2022</t>
+  </si>
+  <si>
+    <t>Athiyaman, A. (1997). Linking student satisfaction and service quality perceptions: the case of university education. European Journal of Marketing, 31(7), 528–540. https://doi.org/10.1108/03090569710176655</t>
+  </si>
+  <si>
+    <t>Beliczyński, J. (2011). Analiza systemu zarządzania wartością dla Klienta. W Przegląd problemów doskonalenia systemów zarządzania przedsiębiorstwem. Mfiles.pl.</t>
+  </si>
+  <si>
+    <t>Bielawa, A. (2011). Przegląd najważniejszych modeli zarządzania jakością usług. Studia i Prace WNEiZ, 24.</t>
+  </si>
+  <si>
+    <t>Bobińska, B. (2012). Funkcjonowanie sektora publicznego jako organizacji „otwartych na klienta”. Zeszyty Naukowe Zachodniopomorskiej Szkoły Biznesu Firma i Rynek, 1, 59–71.</t>
+  </si>
+  <si>
+    <t>Brady, M. K., &amp; Cronin, J. J. (2001). Some New Thoughts on Conceptualizing Perceived Service Quality: A Hierarchical Approach. Journal of Marketing, 65(3), 34–49. https://doi.org/10.1509/jmkg.65.3.34.18334</t>
+  </si>
+  <si>
+    <t>Bukowski, S., &amp; Kosmala, B. (2007). Techniki projekcyjne w identyfikacji przekonań. Psychoterapia, 4(143), 37–44. http://poradnia-empatia.pl/userfiles/poradnia-empatiapl/file/Techniki projekcyjne w identyfikacji przekonan po autoryzacji.pdf</t>
+  </si>
+  <si>
+    <t>Carroll, A. B. (1979). A three-dimensional conceptual model of corporate performance. Corporate Social Responsibility, 497–505. https://doi.org/10.5465/amr.1979.4498296</t>
+  </si>
+  <si>
+    <t>Clarkson, M. B. E. (1995). A Stakeholder Framework for Analyzing and Evaluating Corporate Social Performance. The Academy of Management Review, 20(1), 92. https://doi.org/10.2307/258888</t>
+  </si>
+  <si>
+    <t>Cronin, J. J. (2016). Retrospective: a cross-sectional test of the effect and conceptualization of service value revisited. Journal of Services Marketing, 30(3), 261–265. https://doi.org/10.1108/JSM-11-2015-0328</t>
+  </si>
+  <si>
+    <t>Cronin, J. J., Brady, M. K., Brand, R. R., Hightower, R., &amp; Shemwell, D. J. (1997). A cross‐sectional test of the effect and conceptualization of service value. Journal of Services Marketing, 11(6), 375–391. https://doi.org/10.1108/08876049710187482</t>
+  </si>
+  <si>
+    <t>Cybermetrics Lab. (2023). Ranking Web of Universities 2023. Webometrics 2023 Jan Ranking. https://www.webometrics.info/en/world</t>
+  </si>
+  <si>
+    <t>Czarnik, S., &amp; Turek, K. (2014). Aktywność zawodowa i wykształcenie Polaków. https://www.parp.gov.pl/images/PARP_publications/pdf/20012.pdf</t>
+  </si>
+  <si>
+    <t>ELA 2020. (2021). Ekonomiczne Losy Absolwentów - zbiór danych źródłowych dla Uczelni obejmujący dane absolwentów studiów I, II stopnia i jednolitych studiów magiserskich do 2020 roku. https://ela.nauka.gov.pl/pl/experts/source-data</t>
+  </si>
+  <si>
+    <t>Faishol, O. K. L. M. A., &amp; Subriadi, A. P. (2022). Change management scenario to improve Webometrics ranking. Procedia Computer Science, 197, 557–565. https://doi.org/10.1016/j.procs.2021.12.173</t>
+  </si>
+  <si>
+    <t>Freeman, R. E., &amp; McVea, J. (2001). A stakeholder approach to strategic management. SSRN Electronic Journal.</t>
+  </si>
+  <si>
+    <t>Gołata, K., &amp; Sojkin, B. (2020). Determinanty budowania wizerunku i reputacji wyższej uczelni wobec jej intersariuszy. Marketing Instytucji Naukowych i Badawczych, 35(1), 29–58. https://doi.org/10.2478/minib-2020-0002</t>
+  </si>
+  <si>
+    <t>Greszta, M. (2010). Pomiar efektywności: rynek. W Odpowiedzialny biznes 2010. Wydawnictwo HBRP.</t>
+  </si>
+  <si>
+    <t>Grudowski, P., &amp; Szefler, J. P. (2015). Stakeholders Satisfaction Index as an Important Factor of Improving Quality Management Systems of Universities in Poland. Managing in Recovering Markets, GCMRM 2015.</t>
+  </si>
+  <si>
+    <t>Gummesson, E. (1998). Productivity, quality and relationship marketing in service operations. International Journal of Contemporary Hospitality Management, 10(1), 4–15. https://doi.org/10.1108/09596119810199282</t>
+  </si>
+  <si>
+    <t>GUS. (2021). Rocznik Demograficzny. https://stat.gov.pl/download/gfx/portalinformacyjny/pl/defaultaktualnosci/5515/3/12/1/rocznik_demograficzny_2018.pdf</t>
+  </si>
+  <si>
+    <t>GUS. (2022). Ludność według cech społecznych – wyniki wstępne NSP 2021. https://stat.gov.pl/files/gfx/portalinformacyjny/pl/defaultaktualnosci/6494/2/1/1/ludnosc_wedlug_cech_spolecznych_-_wyniki_wstepne_nsp_2021.pdf</t>
+  </si>
+  <si>
+    <t>Hoonakker, P., &amp; Carayon, P. (2009). Questionnaire Survey Nonresponse: A Comparison of Postal Mail and Internet Surveys. International Journal of Human-Computer Interaction, 25(5), 348–373. https://doi.org/10.1080/10447310902864951</t>
+  </si>
+  <si>
+    <t>Iacobucci, D., Ostrom, A., &amp; Grayson, K. (1995). Distinguishing Service Quality and Customer Satisfaction: The Voice of the Consumer. Journal of Consumer Psychology, 4(3), 277–303. https://doi.org/10.1207/s15327663jcp0403_04</t>
+  </si>
+  <si>
+    <t>Jastrzębska, E. (2016). Angażowanie interesariuszy jako istota społecznej odpowiedzialności według ISO 26000. W Reklama i PR z perspektywy współczesnych problemów komunikacji marketingowej (Red.) A. Wiśniewska, A. Kozłowska (ss. 71–91). Wyższa Szkoła Promocji, Mediów i Show Businessu.</t>
+  </si>
+  <si>
+    <t>Kang, H., &amp; Ahn, J.-W. (2021). Model Setting and Interpretation of Results in Research Using Structural Equation Modeling: A Checklist with Guiding Questions for Reporting. Asian Nursing Research, 15(3), 157–162. https://doi.org/10.1016/j.anr.2021.06.001</t>
+  </si>
+  <si>
+    <t>Kapusta, M. (2019). Interesariusze – osoby, o których musisz pamiętać w projekcie. https://leadership-center.pl/blog/interesariusze-osoby-o-ktorych-musisz-pamietac-w-projekcie/</t>
+  </si>
+  <si>
+    <t>Karwacka, M. (2011). Interesariusze.</t>
+  </si>
+  <si>
+    <t>Khodayari, F., &amp; Khodayari, B. (2011). Service Quality in Higher Education (Case study: Measuring service quality of Islamic Azad University, Firoozkooh branch). Interdisciplinary Journal of Research in Business, 1(9), 38–46.</t>
+  </si>
+  <si>
+    <t>Khoo, S., Ha, H., &amp; McGregor, S. L. T. T. (2017). Service quality and student/customer satisfaction in the private tertiary education sector in Singapore. International Journal of Educational Management, 31(4), 430–444. https://doi.org/10.1108/IJEM-09-2015-0121</t>
+  </si>
+  <si>
+    <t>Kolman, R., &amp; Tkaczyk, T. (1996). Jakość usług. Poradnik. TNOiK.</t>
+  </si>
+  <si>
+    <t>Krosnick, J. A. (1999). SURVEY RESEARCH. Annual Review of Psychology, 50(1), 537–567. https://doi.org/10.1146/annurev.psych.50.1.537</t>
+  </si>
+  <si>
+    <t>Laloux, F. (2015). Pracować inaczej. Wydawnictwo Studio EMKA.</t>
+  </si>
+  <si>
+    <t>Likert, R. (1932). Technique for the Measurement of Attitudes. Archives of Psychology, 22(140).</t>
+  </si>
+  <si>
+    <t>Lisowska, A., &amp; Ziemiński, Ł. (2012). Zarządzanie jakością w urzędach administracji publicznej. Zeszyty Naukowe Uniwersytetu Przyrodniczo-Humanistycznego w Siedlcach, 95, 302–322.</t>
+  </si>
+  <si>
+    <t>Mainardes, E. W., Alves, H., &amp; Raposo, M. (2012). A model for stakeholder classification and stakeholder relationships. MANAGEMENT DECISION, 50(10), 1861–1879. https://doi.org/10.1108/00251741211279648</t>
+  </si>
+  <si>
+    <t>Matzat, U., Snijders, C., &amp; van der Horst, W. (2009). Effects of different types of progress indicators on drop-out rates in web surveys. Social Psychology, 40(1), 43.</t>
+  </si>
+  <si>
+    <t>MEiN. (2023). Ekonomiczne Losy Absolwentów. https://www.gov.pl/web/edukacja-i-nauka/ekonomiczne-losy-absolwentow</t>
+  </si>
+  <si>
+    <t>Mitchell, R. K., Agle, B. R., &amp; Wood, D. J. (1997). Towards a theory of stakeholder identification and Salience: Defining the Principle of Who and What Really Counts. Academy of Management, 22(4), 853–886.</t>
+  </si>
+  <si>
+    <t>Naukowiec.org. (2023). Siła korelacji, klasyfikacja - opis. https://www.naukowiec.org/wiedza/statystyka/sila-korelacji--klasyfikacja_512.html</t>
+  </si>
+  <si>
+    <t>Pawlikowski, J. M. (2010). Polskie uczelnie wobec wyzwań procesu Bolońskiego. Zespół Promotorów Bolońskich. http://health.bizcalcs.com/Calculator.asp?Calc=Frame-Size-Wrist</t>
+  </si>
+  <si>
+    <t>Perspektywy. (2022). Metodologia Rankingu Szkół Wyższych Perspektywy 2022. https://ranking.perspektywy.pl/2022/article/metodologia-rankingu-uczelni-akademickich-2022r</t>
+  </si>
+  <si>
+    <t>PN-EN ISO 9000:2015. (2016). Systemy zarządzania jakością - Podstawy i terminologia PN-EN ISO 9000.</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2020). Methodology of QS World University Rankings 2020. https://www.topuniversities.com/qs-world-university-rankings/methodology</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023a). Methodology of QS World University Rankings 2023. https://support.qs.com/hc/en-gb/articles/4405955370898-QS-World-University-Rankings</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023b). Methodology of QS WUR - Academic Reputation. https://support.qs.com/hc/en-gb/articles/4405952675346</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023c). Methodology of QS WUR - Citations Per Faculty Ratio. https://support.qs.com/hc/en-gb/articles/360019107580</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023d). Methodology of QS WUR - Employer Reputation. https://support.qs.com/hc/en-gb/articles/4407794203410</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023e). Methodology of QS WUR - Employment Outcomes. https://support.qs.com/hc/en-gb/articles/4744563188508</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023f). Methodology of QS WUR - Faculty-Sudent Ratio. https://support.qs.com/hc/en-gb/articles/360019108240</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023g). Methodology of QS WUR - Interantional Faculty Ratio. https://support.qs.com/hc/en-gb/articles/4403961809554</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023h). Methodology of QS WUR - International Research Network. https://support.qs.com/hc/en-gb/articles/360021865579</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023i). Methodology of QS WUR - International Students Ratio. https://support.qs.com/hc/en-gb/articles/4403961727506</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023j). Methodology of QS WUR - Sustainability. https://support.qs.com/hc/en-gb/articles/8322582098460</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023k). Methodology of QS WUR - Sustainability Ranking. https://support.qs.com/hc/en-gb/articles/6107352412828</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023l). Proposed Methodology of QS World University Rankings 2024. https://support.qs.com/hc/en-gb/articles/6478203732380-2024-Rankings-Cycle</t>
+  </si>
+  <si>
+    <t>QS Quacquarelli Symonds. (2023m). QS World University Rankings 2023. QS WUR Ranking. https://www.topuniversities.com/university-rankings/world-university-rankings/2023</t>
+  </si>
+  <si>
+    <t>Ramirez, R. (1999). Stakeholder analysis and conflict management. W Cultivating peace: conflict and collaboration in natural resource management. IDRC, Ottawa, ON, CA.</t>
+  </si>
+  <si>
+    <t>Rauhvargers, A. (2014). Where Are the Global Rankings Leading Us? An Analysis of Recent Methodological Changes and New Developments. European Journal of Education, 49(1), 29–44. https://doi.org/10.1111/ejed.12066</t>
+  </si>
+  <si>
+    <t>Spreng, R. A., &amp; Mackoy, R. D. (1996). An empirical examination of a model of perceived service quality and satisfaction. Journal of Retailing, 72(2), 201–214. https://doi.org/10.1016/S0022-4359(96)90014-7</t>
+  </si>
+  <si>
+    <t>Stoma, M. (2012). Modele i metody pomiaru jakości usług. http://www.qrpolska.pl/files/file/M3.pdf</t>
+  </si>
+  <si>
+    <t>Szefler, J. P., &amp; Zieliński, G. (2013). Doskonalenie jakości usług edukacyjnych poprzez ocenę wyniku działalności instytucji akademickiej (ss. 274–288). unknown.</t>
+  </si>
+  <si>
+    <t>Szymaniec-Mlicka, K. (2016). Zarządzanie relacjami z interesariuszami publicznych podmiotów leczniczych. Zeszyty Naukowe. Organizacja i Zarządzanie. Politechnika Śląska, 97(1964), 309–320.</t>
+  </si>
+  <si>
+    <t>Times Higher Education. (2022). World University Rankings 2023 methodology. Times Higher Education (THE) (Numer October 2022). https://www.timeshighereducation.com/sites/default/files/breaking_news_files/the_2023_world_university_rankings_methodology.pdf</t>
+  </si>
+  <si>
+    <t>Times Higher Education. (2023). THE World University Rankings 2023. THE WUR Ranking. https://www.timeshighereducation.com/world-university-rankings/2023/world-ranking</t>
+  </si>
+  <si>
+    <t>Townsend, P. (1995). Quality involves everyone: how Paul Revere discovered “quality has value”. Managing Service Quality: An International Journal, 5(2), 19–24. https://doi.org/10.1108/09604529510083549</t>
+  </si>
+  <si>
+    <t>Trzeciak, M. (2016). Analiza atrybutów interesariuszy projektu warunkujących sukces projektu. Zeszyty Naukowe. Organizacja i Zarządzanie / Politechnika Śląska, 89, 497–506. file:///C:/Users/JPSZ/Desktop/STUDIA/LITERATURA/interesariusze/Trzeciak_ZNOiZ_89_2016.pdf</t>
+  </si>
+  <si>
+    <t>Tutko, M. (2018). Assessment of the quality of internationalisation in higher education institutions. Studia Ekonomiczne, 361, 76–85.</t>
+  </si>
+  <si>
+    <t>Van Aswegen, A. S., &amp; Engelbrecht, A. S. (2009). The relationship between transformational leadership, integrity and an ethical climate in organizations. SA Journal of Human Resource Management, 7(1), 1–9.</t>
+  </si>
+  <si>
+    <t>Vehovar, V., Batagelj, Z., Manfreda, K. L., &amp; Zaletel, M. (2002). Nonresponse in web surveys. Survey nonresponse, 229–242.</t>
+  </si>
+  <si>
+    <t>Villar, A., Callegaro, M., &amp; Yang, Y. (2013). Where Am I? A Meta-Analysis of Experiments on the Effects of Progress Indicators for Web Surveys. Social Science Computer Review, 31(6), 744–762. https://doi.org/10.1177/0894439313497468</t>
+  </si>
+  <si>
+    <t>von Mises, L. (2006). Ekonomia i polityka: wykład elementarny. Fijorr Publishing.</t>
+  </si>
+  <si>
+    <t>Woźnicki, J. (2008). Legislacyjne określenie pozycji uczelni jako instytucji życia publicznego. W Społeczna odpowiedzialność uczelni (ss. 13–21). Wydawnictwo Politechniki Gdańskiej.</t>
+  </si>
+  <si>
+    <t>Zeithaml, V. A., Berry, L. L., &amp; Parasuraman, A. (1996). The Behavioral Consequences of Service Quality. Journal of Marketing, 60(2), 31–46. https://doi.org/10.1177/002224299606000203</t>
   </si>
 </sst>
 </file>
@@ -782,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+    <sheetView topLeftCell="A121" workbookViewId="0">
       <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
@@ -1960,4 +2195,1779 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FEA447-EA32-469C-96EC-90E026FEAD1F}">
+  <dimension ref="A1:B220"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pomocnicze/BibliografiaMendeley_tabela.xlsx
+++ b/pomocnicze/BibliografiaMendeley_tabela.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JPSZ\Desktop\STUDIA\doktorat_git\pomocnicze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFEE606-4E3D-49AC-B888-65540213D211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AAB814-1DA8-46DB-8666-80BFF44F4C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="-98" windowWidth="23243" windowHeight="13695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1830" yWindow="-21710" windowWidth="37380" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="20240419" sheetId="3" r:id="rId1"/>
     <sheet name="20230615" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="437">
   <si>
     <t>Alves, H. (2010). Perceived value index in higher education. Innovative Marketing, 6(2), 33–42.</t>
   </si>
@@ -698,6 +699,645 @@
   </si>
   <si>
     <t>Zeithaml, V. A., Berry, L. L., &amp; Parasuraman, A. (1996). The Behavioral Consequences of Service Quality. Journal of Marketing, 60(2), 31–46. https://doi.org/10.1177/002224299606000203</t>
+  </si>
+  <si>
+    <t>Aakhus, M., &amp; Bzdak, M. (2015). Stakeholder engagement as communication design practice. Journal of Public Affairs, 15(2), 188–200. https://doi.org/10.1002/pa.1569</t>
+  </si>
+  <si>
+    <t>Adeinat, I., Al Rahahleh, N., &amp; Al Bassam, T. (2022). Lean Six Sigma and Assurance of Learning (AoL) in higher education: a case study. International Journal of Quality &amp; Reliability Management, 39(2), 570–587. https://doi.org/10.1108/IJQRM-01-2021-0017</t>
+  </si>
+  <si>
+    <t>Al-Turki, U. M., Duffuaa, S., Ayar, T., &amp; Demirel, O. (2008). Stakeholders integration in higher education: supply chain approach. European Journal of Engineering Education, 33(2), 211–219. https://doi.org/10.1080/03043790801980136</t>
+  </si>
+  <si>
+    <t>Al‐Khafaji, A. W., Oberhelman, D. R., Baum, W., &amp; Koch, B. (2009). Communication in Stakeholder Management. W E. Chinyio &amp; P. Olomolaiye (Red.), Construction Stakeholder Management (ss. 159–173). Wiley. https://doi.org/10.1002/9781444315349.ch10</t>
+  </si>
+  <si>
+    <t>Aliu, D., Akatay, A., &amp; Aliu, A. (2018). The Influence of Inter-Stakeholders’ Communication on University – Industry Collaboration. Scholedge International Journal of Business Policy &amp; Governance ISSN 2394-3351, 4(8), 78. https://doi.org/10.19085/journal.sijbpg040801</t>
+  </si>
+  <si>
+    <t>Alkabbanie, R. (2020). ESG 2015 vs. ISO 9001:2015 Regarding Stakeholders. International Journal of Social Sciences &amp; Educational Studies, 7(2). https://doi.org/10.23918/ijsses.v7i2p46</t>
+  </si>
+  <si>
+    <t>Alnadi, M., &amp; McLaughlin, P. (2021). Critical success factors of Lean Six Sigma from leaders’ perspective. International Journal of Lean Six Sigma, 12(5), 1073–1088. https://doi.org/10.1108/IJLSS-06-2020-0079</t>
+  </si>
+  <si>
+    <t>AMuz Gdańsk. (2018). WSZJK Akademii Muzycznej w Gdańsku. Wewnętrzny System Zapewniania Jakości Kształcenia. https://www.amuz.gda.pl/akademia/akty-prawne/wewnetrzny-system-zapewniania-jakosci-ksztalcenia,71</t>
+  </si>
+  <si>
+    <t>Anand, A., Kaur, J., Singh, O., &amp; H. Alhazmi, O. (2021). Optimal Sprint Length Determination for Agile-Based Software Development. Computers, Materials &amp; Continua, 68(3), 3693–3712. https://doi.org/10.32604/cmc.2021.017461</t>
+  </si>
+  <si>
+    <t>Anderson, J. C., Rungtusanatham, M., &amp; Schroeder, R. G. (1994). A THEORY OF QUALITY MANAGEMENT UNDERLYING THE DEMING MANAGEMENT METHOD. Academy of Management Review, 19(3), 472–509. https://doi.org/10.5465/amr.1994.9412271808</t>
+  </si>
+  <si>
+    <t>Andersson, R., Eriksson, H., &amp; Torstensson, H. (2006). Similarities and differences between TQM, six sigma and lean. The TQM Magazine, 18(3), 282–296. https://doi.org/10.1108/09544780610660004</t>
+  </si>
+  <si>
+    <t>Andriof, J., &amp; Waddock, S. (2017). Unfolding Stakeholder Engagement. W Unfolding Stakeholder Thinking (ss. 19–42). Routledge. https://doi.org/10.4324/9781351281881-2</t>
+  </si>
+  <si>
+    <t>Annamdevula, S., &amp; Bellamkonda, R. S. (2016). Effect of student perceived service quality on student satisfaction, loyalty and motivation in Indian universities Development of HiEduQual. JOURNAL OF MODELLING IN MANAGEMENT, 11(2), 488–517. https://doi.org/10.1108/JM2-01-2014-0010</t>
+  </si>
+  <si>
+    <t>Antony, J. (2014). Readiness factors for the Lean Six Sigma journey in the higher education sector. International Journal of Productivity and Performance Management, 63(2), 257–264. https://doi.org/10.1108/IJPPM-04-2013-0077</t>
+  </si>
+  <si>
+    <t>Antony, J. (2017). Lean Six Sigma for higher education. International Journal of Productivity and Performance Management, 66(5), 574–576. https://doi.org/10.1108/IJPPM-03-2017-0063</t>
+  </si>
+  <si>
+    <t>Antony, J., Ghadge, A., Ashby, S. A., &amp; Cudney, E. A. (2018). Lean Six Sigma journey in a UK higher education institute: a case study. International Journal of Quality &amp; Reliability Management, 35(2), 510–526. https://doi.org/10.1108/IJQRM-01-2017-0005</t>
+  </si>
+  <si>
+    <t>Antony, J., Krishan, N., Cullen, D., &amp; Kumar, M. (2012). Lean Six Sigma for higher education institutions (HEIs): Challenges, barriers, success factors, tools/techniques. International Journal of Productivity and Performance Management, 61(8), 940–948. https://doi.org/10.1108/17410401211277165</t>
+  </si>
+  <si>
+    <t>Antony, J., McDermott, O., Sony, M., Cudney, E. A., Snee, R. D., &amp; Hoerl, R. W. (2021). A study into the pros and cons of ISO 18404: viewpoints from leading academics and practitioners. The TQM Journal, 33(8), 1845–1866. https://doi.org/10.1108/TQM-03-2021-0065</t>
+  </si>
+  <si>
+    <t>Antony, J., Scheumann, T., Sunder M., V., Cudney, E., Rodgers, B., &amp; Grigg, N. P. (2022). Using Six Sigma DMAIC for Lean project management in education: a case study in a German kindergarten. Total Quality Management &amp; Business Excellence, 33(13–14), 1489–1509. https://doi.org/10.1080/14783363.2021.1973891</t>
+  </si>
+  <si>
+    <t>Arnheiter, E. D., &amp; Maleyeff, J. (2005). The integration of lean management and Six Sigma. The TQM Magazine, 17(1), 5–18. https://doi.org/10.1108/09544780510573020</t>
+  </si>
+  <si>
+    <t>Asif, M., Awan, M. U., Khan, M. K., &amp; Ahmad, N. (2013). A model for total quality management in higher education. Quality &amp; Quantity, 47(4), 1883–1904. https://doi.org/10.1007/s11135-011-9632-9</t>
+  </si>
+  <si>
+    <t>Atherton, S. C., Blodgett, M. S., &amp; Atherton, C. A. (2011). Fiduciary princiles: corporate Responsibilities to Stakeholders. Journal of Religion and Business Ethics, 2(2).</t>
+  </si>
+  <si>
+    <t>Avcı, Ö., Ring, E., &amp; Mitchell, L. (2015). Stakeholders in U.S. higher education: An analysis through two theories of stakeholders. Bilgi Ekonomisi ve Yönetimi Dergisi, 10(2), 45–54. http://dergipark.ulakbim.gov.tr/beyder/article/view/5000166649</t>
+  </si>
+  <si>
+    <t>Balaji, S., &amp; Murugaiyan, M. S. (2012). Waterfall vs. V-Model vs. Agile: A comparative study on SDLC. International Journal of Information Technology and Business Management, 2(1), 26–30.</t>
+  </si>
+  <si>
+    <t>Bayraktar, E., Tatoglu, E., &amp; Zaim, S. (2008). An instrument for measuring the critical factors of TQM in Turkish higher education. Total Quality Management &amp; Business Excellence, 19(6), 551–574. https://doi.org/10.1080/14783360802023921</t>
+  </si>
+  <si>
+    <t>Beerkens, M., &amp; Udam, M. (2017). Stakeholders in Higher Education Quality Assurance: Richness in Diversity? Higher Education Policy, 30(3), 341–359. https://doi.org/10.1057/s41307-016-0032-6</t>
+  </si>
+  <si>
+    <t>Bendermacher, G. W. G., oude Egbrink, M. G. A., Wolfhagen, I. H. A. P., &amp; Dolmans, D. H. J. M. (2017). Unravelling quality culture in higher education: a realist review. Higher Education, 73(1), 39–60. https://doi.org/10.1007/s10734-015-9979-2</t>
+  </si>
+  <si>
+    <t>Bendkowski, J. (2016). Jednostkowe korzyści z uczestnictwa w nieformalnych sieciach wiedzy. Zeszyty Naukowe. Organizacja i Zarządzanie / Politechnika Śląska, 89, 11–23.</t>
+  </si>
+  <si>
+    <t>Blanchard, K. H., Zigarmi, D., &amp; Nelson, R. B. (1993). Situational Leadership® After 25 Years: A Retrospective. Journal of Leadership Studies, 1(1), 21–36. https://doi.org/10.1177/107179199300100104</t>
+  </si>
+  <si>
+    <t>Blikle, A. (2017). Doktryna jakości. Rzecz o turkusowej samoorganizacji. (II). Wydawnictwo HELION.</t>
+  </si>
+  <si>
+    <t>Bot, S., Lung, C.-H., &amp; Farrell, M. (1996). A stakeholder-centric software architecture analysis approach. Joint proceedings of the second international software architecture workshop (ISAW-2) and international workshop on multiple perspectives in software development (Viewpoints ’96) on SIGSOFT ’96 workshops, 152–154. https://doi.org/10.1145/243327.243632</t>
+  </si>
+  <si>
+    <t>Bragantini, D., &amp; Matteo, L. (2017). Stakeholders communication approach: A new era. Project Management Development--Practice and Perspectives, 27, 19.</t>
+  </si>
+  <si>
+    <t>Brdulak, J. (2016). Ocena jakości kształcenia w Polsce – problemy i rekomendacje. Nauka i Szkolnictwo Wyższe, 2(2(48)), 81–94. https://doi.org/10.14746/nisw.2016.2.4</t>
+  </si>
+  <si>
+    <t>Bryson, J. M. (2004). Stakeholder Identification and Analysis Techniques. Public Management Reviews, 6(1), 31–53.</t>
+  </si>
+  <si>
+    <t>Burrows, J. (1999). Going Beyond Labels: A Framework for Profiling Institutional Stakeholders. Contemporary Education, 70(4), 5. http://search.ebscohost.com/login.aspx?direct=true&amp;db=a9h&amp;AN=3116623&amp;site=ehost-live</t>
+  </si>
+  <si>
+    <t>Byrne, J., Jørgensen, T., &amp; Loukkola, T. (2013). Quality assurance in doctoral education: Results of the ARDE Project. European University Association.</t>
+  </si>
+  <si>
+    <t>Calabretta, G., Gemser, G., &amp; Wijnberg, N. M. (2017). The Interplay between Intuition and Rationality in Strategic Decision Making: A Paradox Perspective. Organization Studies, 38(3–4), 365–401. https://doi.org/10.1177/0170840616655483</t>
+  </si>
+  <si>
+    <t>Carrillat, F. A., Jaramillo, F., &amp; Mulki, J. P. (2007). The validity of the SERVQUAL and SERVPERF scales. International Journal of Service Industry Management, 18(5), 472–490. https://doi.org/10.1108/09564230710826250</t>
+  </si>
+  <si>
+    <t>Chai, K.-H., Zhang, J., &amp; Tan, K.-C. (2005). A TRIZ-Based Method for New Service Design. Journal of Service Research, 8(1), 48–66. https://doi.org/10.1177/1094670505276683</t>
+  </si>
+  <si>
+    <t>Clark, B. R. (1980). Academic Culture (42). Yale University Higher Education Research Group.</t>
+  </si>
+  <si>
+    <t>Cronin Jr, J. J., &amp; Taylor, S. A. (1992). Measuring service quality: a reexamination and extension. Journal of marketing, 56(3), 55–68. https://doi.org/10.1177/00222429920560030</t>
+  </si>
+  <si>
+    <t>Dahlgaard, J. J., &amp; Dahlgaard‐Park, S. M. (2006). Lean production, six sigma quality, TQM and company culture. The TQM Magazine, 18(3), 263–281. https://doi.org/10.1108/09544780610659998</t>
+  </si>
+  <si>
+    <t>de Haan, E., Verhoef, P. C., &amp; Wiesel, T. (2015). The predictive ability of different customer feedback metrics for retention. International Journal of Research in Marketing, 32(2), 195–206. https://doi.org/10.1016/j.ijresmar.2015.02.004</t>
+  </si>
+  <si>
+    <t>Detyna, B. (2022). Lean Management a jakość zarządzania w uczelni – szanse i zagrożenia. Problemy Jakości, 1(3), 11–19. https://doi.org/10.15199/46.2022.3.2</t>
+  </si>
+  <si>
+    <t>Dingsøyr, T., Nerur, S., Balijepally, V., &amp; Moe, N. B. (2012). A decade of agile methodologies: Towards explaining agile software development. Journal of Systems and Software, 85(6), 1213–1221. https://doi.org/10.1016/j.jss.2012.02.033</t>
+  </si>
+  <si>
+    <t>Dobbins, M., Horváthová, B., &amp; Labanino, R. P. (2021). Exploring interest intermediation in Central and Eastern Europe: is higher education different? Interest Groups &amp; Advocacy, 10(4), 399–429. https://doi.org/10.1057/s41309-021-00136-x</t>
+  </si>
+  <si>
+    <t>Donaldson, T., &amp; Preston, L. E. (1995). The Stakeholder Theory of the Corporation: Concepts, Evidence, and Implications. Academy of Management Review, 20(1), 65–91. https://doi.org/10.5465/amr.1995.9503271992</t>
+  </si>
+  <si>
+    <t>Douglas, J., Antony, J., &amp; Douglas, A. (2015). Waste identification and elimination in HEIs: the role of Lean thinking. International Journal of Quality &amp; Reliability Management, 32(9), 970–981. https://doi.org/10.1108/IJQRM-10-2014-0160</t>
+  </si>
+  <si>
+    <t>Drucker, P. F. (1984). Converting Social Problems into Business Opportunities: The New Meaning of Corporate Social Responsibility. California Management Review, 26(2), 53–63. https://doi.org/10.2307/41165066</t>
+  </si>
+  <si>
+    <t>Duc, A. N., &amp; Abrahamsson, P. (2016). Minimum Viable Product or Multiple Facet Product? The Role of MVP in Software Startups. W H. Sharp &amp; T. Hall (Red.), Agile Processes, in Software Engineering, and Extreme Programming (ss. 118–130). Springer International Publishing. https://doi.org/10.1007/978-3-319-33515-5_10</t>
+  </si>
+  <si>
+    <t>Dz. U. 1787. (2018). Rozporządzenie Ministra Nauki i Szkolnictwa Wyższego w sprawie kryteriów oceny programowej. Kancelaria Sejmu RP. https://isap.sejm.gov.pl/isap.nsf/download.xsp/WDU20180001787/O/D20181787.pdf</t>
+  </si>
+  <si>
+    <t>Dz. U. 305. (2022). Rozporządzenie Ministra Nauki i Szkolnictwa wyższego z dnia 8 lutego 2022. Dziennik Ustaw RP.</t>
+  </si>
+  <si>
+    <t>Dz. U. 574. (2022). Ustawa z dnia 20 lipca 2018 r. Prawo o szkolnictwie wyższym i nauce (Numer Dz. U. 574 z 11.03.2022). Kancelaria Sejmu RP. https://isap.sejm.gov.pl/isap.nsf/DocDetails.xsp?id=WDU20220000574</t>
+  </si>
+  <si>
+    <t>Dzhuguryan, L., Iwan, S., &amp; Marchuk, I. (2019). Zarządzanie jakością kształcenia w szkolnictwie wyższym na podstawie monitoringu procesu edukacyjnego. Zeszyty Naukowe Politechniki Częstochowskiej Zarządzanie, 34(1), 38–49. https://doi.org/10.17512/znpcz.2019.2.03</t>
+  </si>
+  <si>
+    <t>Dziadkowiec, J. (2006). Wybrane metody badania i oceny jakości usług. Zeszyty Naukowe Akademii Ekonimicznej w Krakowie, 717, 23–35.</t>
+  </si>
+  <si>
+    <t>Dziadkowiec, J., &amp; Sikora, T. (2015). Wybrane aspekty zarządzania jakością usług jakościa.</t>
+  </si>
+  <si>
+    <t>EIPA, &amp; EUPAN. (2013). CAF Education 2013.</t>
+  </si>
+  <si>
+    <t>EIPA, &amp; EUPAN. (2020). Wspólna Metoda Oceny. Europejski model doskonalenia organizacji sektora publicznego poprzez samoocenę. https://www.gov.pl/attachment/13844091-cd71-4a98-b729-1983306e5b87</t>
+  </si>
+  <si>
+    <t>ENQA. (2015). Standards and guidelines for quality assurance in the European Higher Education Area (ESG). ENQA Brussels.</t>
+  </si>
+  <si>
+    <t>Eskerod, P., Huemann, M., &amp; Savage, G. (2015). Project Stakeholder Management—Past and Present. Project Management Journal, 46(6), 6–14. https://doi.org/10.1002/pmj.21555</t>
+  </si>
+  <si>
+    <t>Firdaus, A. (2005). The development of HEdPERF: a new measuring instrument of service quality for the higher education sector. International Journal of Consumer Studies, 30(6), 569–581. https://doi.org/10.1111/j.1470-6431.2005.00480.x</t>
+  </si>
+  <si>
+    <t>Firdaus, A. (2006). Measuring service quality in higher education: HEdPERF versus SERVPERF. Marketing Intelligence &amp; Planning, 24(1), 31–47. https://doi.org/10.1108/02634500610641543</t>
+  </si>
+  <si>
+    <t>Fisher, N. I., &amp; Kordupleski, R. E. (2019). Good and bad market research: A critical review of Net Promoter Score. Applied Stochastic Models in Business and Industry, 35(1), 138–151. https://doi.org/10.1002/asmb.2417</t>
+  </si>
+  <si>
+    <t>Fleaca, E., Fleaca, B., &amp; Maiduc, S. (2017). Modeling Stakeholders Relationships to Strengthen the Entrepreneurial Behavior of Higher Education Institutions. Procedia Engineering, 181, 935–942. https://doi.org/10.1016/j.proeng.2017.02.490</t>
+  </si>
+  <si>
+    <t>Fonseca, L., &amp; Domingues, J. P. (2017). ISO 9001: 2015 edition - management, quality and value. International journal of quality research, 1(11), 149–158. https://doi.org/10.18421/IJQR11.01-09</t>
+  </si>
+  <si>
+    <t>Freeman, R. E. (2010). Strategic Management: A stakeholder apporach. Cambridge University Press.</t>
+  </si>
+  <si>
+    <t>Freeman, R. E., &amp; Reed, D. L. (1983). Stockholders and Stakeholders: A New Perspective on Corporate Governance. California Management Review, 25(3), 88–106. https://doi.org/10.2307/41165018</t>
+  </si>
+  <si>
+    <t>Friedman, M. (1970). The Social Responsibility of Business Is to Increase Its Profits. W Corporate Ethics and Corporate Governance (ss. 173–178). Springer Berlin Heidelberg. https://doi.org/10.1007/978-3-540-70818-6_14</t>
+  </si>
+  <si>
+    <t>Goodley, B. (2023). Highest NPS Scores 2023. customergauge.com. https://customergauge.com/benchmarks/blog/top-highest-nps-scores</t>
+  </si>
+  <si>
+    <t>Grudowski, P. (2020a). Perspektywa jakości w szkolnictwie wyższym. O modelu QualHE. PWE.</t>
+  </si>
+  <si>
+    <t>Grudowski, P. (2020b). Wykorzystanie wybranych normatywnych systemów zarządzania w instytucjach szkolnictwa wyższego. Problemy Jakości, 1(8), 4–10. https://doi.org/10.15199/46.2020.8.1</t>
+  </si>
+  <si>
+    <t>Grudowski, P., &amp; Szefler, J. P. (2015a). Rola interesariuszy w działaniach na rzecz projektowania i doskonalenia systemów zarządzania jakością polskich uczelni. Przegląd Organizacji, 12–18. https://doi.org/10.33141/po.2015.04.02</t>
+  </si>
+  <si>
+    <t>Grudowski, P., &amp; Szefler, J. P. (2015b). Stakeholders Satisfaction Index as an Important Factor of Improving Quality Management Systems of Universities in Poland. Managing in Recovering Markets, GCMRM 2015.</t>
+  </si>
+  <si>
+    <t>Gupta, M., Boyd, L., &amp; Kuzmits, F. (2011). The evaporating cloud: a tool for resolving workplace conflict. International Journal of Conflict Management, 22(4), 394–412. https://doi.org/10.1108/10444061111171387</t>
+  </si>
+  <si>
+    <t>Gupta, M., Digalwar, A., Gupta, A., &amp; Goyal, A. (2022). Integrating Theory of Constraints, Lean and Six Sigma: a framework development and its application. Production Planning &amp; Control, 1–24. https://doi.org/10.1080/09537287.2022.2071351</t>
+  </si>
+  <si>
+    <t>Gupta, S., Sharma, M., &amp; Sunder M., V. (2016). Lean services: a systematic review. International Journal of Productivity and Performance Management, 65(8), 1025–1056. https://doi.org/10.1108/IJPPM-02-2015-0032</t>
+  </si>
+  <si>
+    <t>GUS. (2018a). Rocznik demograficzny 2018.</t>
+  </si>
+  <si>
+    <t>GUS. (2019b). Szkoły wyższe i ich finanse w 2018 r.</t>
+  </si>
+  <si>
+    <t>GUS. (2020a). Działalność badawcza i rozwojowa w Polsce w 2019 r. https://stat.gov.pl/download/gfx/portalinformacyjny/pl/defaultaktualnosci/5496/8/9/1/dzialalnosc_badawcza_i_rozwojowa_w_polsce_w_2019.pdf</t>
+  </si>
+  <si>
+    <t>GUS. (2020b). Ludność. Stan i struktura oraz ruch naturalny w przekroju terytorialnym w 2020 r. 1.</t>
+  </si>
+  <si>
+    <t>GUS. (2020c). Rocznik demograficzny 2020.</t>
+  </si>
+  <si>
+    <t>GUS. (2020d). Szkolnictwo wyższe i jego finanse w 2019 r.</t>
+  </si>
+  <si>
+    <t>GUS. (2021a). Rocznik Demograficzny.</t>
+  </si>
+  <si>
+    <t>GUS. (2021b). Szkolnictwo wyższe i jego finanse w 2020 r.</t>
+  </si>
+  <si>
+    <t>GUS. (2022a). Ludność według cech społecznych – wyniki wstępne NSP 2021.</t>
+  </si>
+  <si>
+    <t>GUS. (2022b). Szkolnictwo wyższe i jego finanse w 2021 r.</t>
+  </si>
+  <si>
+    <t>GUS. (2023). Szkolnictwo wyższe i jego finanse w 2022 r.</t>
+  </si>
+  <si>
+    <t>Hadid, W. (2019). Lean service, business strategy and ABC and their impact on firm performance. Production Planning &amp; Control, 30(14), 1203–1217. https://doi.org/10.1080/09537287.2019.1599146</t>
+  </si>
+  <si>
+    <t>Haerizadeh, M., &amp; Sunder M., V. (2019). Impacts of Lean Six Sigma on improving a higher education system: a case study. International Journal of Quality &amp; Reliability Management, 36(6), 983–998. https://doi.org/10.1108/IJQRM-07-2018-0198</t>
+  </si>
+  <si>
+    <t>Harvey, L., &amp; Stensaker, B. (2008). Quality Culture: understandings, boundaries and linkages. European Journal of Education, 43(4), 427–442. https://doi.org/10.1111/j.1465-3435.2008.00367.x</t>
+  </si>
+  <si>
+    <t>Hildesheim, C., &amp; Sonntag, K. (2020). The Quality Culture Inventory: a comprehensive approach towards measuring quality culture in higher education. Studies in Higher Education, 45(4), 892–908. https://doi.org/10.1080/03075079.2019.1672639</t>
+  </si>
+  <si>
+    <t>Holweg, M. (2007). The genealogy of lean production. Journal of Operations Management, 25(2), 420–437. https://doi.org/10.1016/j.jom.2006.04.001</t>
+  </si>
+  <si>
+    <t>Huang, Y., Li, X., Wilck, J., &amp; Berg, T. (2012). Cost reduction in healthcare via Lean Six Sigma. 62nd IIE Annual Conference and Expo 2012, 1263–1270.</t>
+  </si>
+  <si>
+    <t>Hundal, G. S., Thiyagarajan, S., Alduraibi, M., Laux, C. M., Furterer, S. L., Cudney, E. A., &amp; Antony, J. (2022). The impact of Lean Six Sigma practices on supply chain resilience during COVID 19 disruption: a conceptual framework. Total Quality Management &amp; Business Excellence, 33(15–16), 1913–1931. https://doi.org/10.1080/14783363.2021.2014313</t>
+  </si>
+  <si>
+    <t>Hussinki, H., Kianto, A., Vanhala, M., &amp; Ritala, P. (2019). Happy Employees Make Happy Customers: The Role of Intellectual Capital in Supporting Sustainable Value Creation in Organizations. W Intellectual Capital Management as a Driver of Sustainability (ss. 101–117). Springer International Publishing. https://doi.org/10.1007/978-3-319-79051-0_6</t>
+  </si>
+  <si>
+    <t>Iqbal, S., Taib, C. A. Bin, &amp; Razalli, M. R. (2023). The effect of accreditation on higher education performance through quality culture mediation: the perceptions of administrative and quality managers. The TQM Journal. https://doi.org/10.1108/TQM-11-2022-0322</t>
+  </si>
+  <si>
+    <t>ISO. (2024). Management System Standards list. https://www.iso.org/management-system-standards-list.html</t>
+  </si>
+  <si>
+    <t>ISO 21001. (2018). Educational organizations - Management systems for educational organizations - Requirements with guidance for use.</t>
+  </si>
+  <si>
+    <t>Jackson, G. (2021). Stakeholders’ Communication During Learning Analytics Implementation in Higher Education. Walden University.</t>
+  </si>
+  <si>
+    <t>Jackson, M. C. (1982). The nature of soft systems thinking. The work of Churchman, Ackoff and Checkland. Journal of applied systems analysis, 9(1), 17–29.</t>
+  </si>
+  <si>
+    <t>Jain, S. K., &amp; Gupta, G. (2004). Measuring Service Quality: Servqual vs. Servperf Scales. Vikalpa: The Journal for Decision Makers, 29(2), 25–38. https://doi.org/10.1177/0256090920040203</t>
+  </si>
+  <si>
+    <t>Jyoti, J., Kour, S., &amp; Sharma, J. (2017). Impact of total quality services on financial performance: role of service profit chain. Total Quality Management &amp; Business Excellence, 28(7–8), 897–929. https://doi.org/10.1080/14783363.2016.1274649</t>
+  </si>
+  <si>
+    <t>Kanji, G. K., &amp; Tambi, M. A. B. A. (1999). Total quality management in UK higher education institutions. Total Quality Management, 10(1), 129–153. https://doi.org/10.1080/0954412998126</t>
+  </si>
+  <si>
+    <t>Keremidchiev, S. (2021). Theoretical foundations of stakeholder theory. Ikonomicheski Izsledvania, 30(1), 70–88.</t>
+  </si>
+  <si>
+    <t>Kettunen, J. (2015). Stakeholder relationships in higher education. Tertiary Education and Management, 21(1), 56–65. https://doi.org/10.1080/13583883.2014.997277</t>
+  </si>
+  <si>
+    <t>Khazanchi, S., Lewis, M. W., &amp; Boyer, K. K. (2007). Innovation-supportive culture: The impact of organizational values on process innovation. Journal of Operations Management, 25(4), 871–884. https://doi.org/10.1016/j.jom.2006.08.003</t>
+  </si>
+  <si>
+    <t>Koch, J. V. (2003). TQM: why is its impact in higher education so small? The TQM Magazine, 15(5), 325–333. https://doi.org/10.1108/09544780310487721</t>
+  </si>
+  <si>
+    <t>Kristensen, K., &amp; Eskildsen, J. (2014). Is the NPS a trustworthy performance measure? The TQM Journal, 26(2), 202–214. https://doi.org/10.1108/TQM-03-2011-0021</t>
+  </si>
+  <si>
+    <t>Laurett, R., &amp; Mendes, L. (2019). EFQM model’s application in the context of higher education. International Journal of Quality &amp; Reliability Management.</t>
+  </si>
+  <si>
+    <t>LeBlanc, G., &amp; Nguyen, N. (1997). Searching for excellence in business education: an exploratory study of customer impressions of service quality. International Journal of Educational Management, 11(2), 72–79. https://doi.org/10.1108/09513549710163961</t>
+  </si>
+  <si>
+    <t>Leja, K. (2011). Koncepcje zarządzania współczesnym uniwersytetem. https://doi.org/10.13140/RG.2.1.3539.1529</t>
+  </si>
+  <si>
+    <t>Leja, K., &amp; Kitowski, P. (2013). Doktorat akademicki czy zawodowy na marginesie badań sondażowych w Politechnice Gdańskiej. W K. Jędralska (red.), Modele kształcenia na studiach doktoranckich w dziedzinie nauk ekonomicznych, Uniwersytet Ekonomiczny w Katowicach, Katowice 2013, s. 205-226 (ss. 205–226). w: K. Jędralska (red.), Modele kształcenia na studiach doktoranckich w dziedzinie nauk ekonomicznych, Uniwersytet Ekonomiczny w Katowicach, Katowice 2013, s. 205-226.</t>
+  </si>
+  <si>
+    <t>Linderman, K., Schroeder, R. G., Zaheer, S., &amp; Choo, A. S. (2003). Six Sigma: a goal-theoretic perspective. Journal of Operations Management, 21(2), 193–203. https://doi.org/10.1016/S0272-6963(02)00087-6</t>
+  </si>
+  <si>
+    <t>Liu, Y., Ren, Y., Zhang, M., Wei, K., &amp; Hao, L. (2023). Solenoid valves quality improvement based on Six Sigma management. International Journal of Lean Six Sigma, 14(1), 72–93. https://doi.org/10.1108/IJLSS-08-2021-0140</t>
+  </si>
+  <si>
+    <t>Loi, T. H. (2015). Stakeholder management: a case of its related capability and performance. Management Decision, 54(1), 148–173. https://doi.org/10.1108/MD-06-2015-0244</t>
+  </si>
+  <si>
+    <t>Lowalekar, H., &amp; Ravi, R. R. (2017). Revolutionizing blood bank inventory management using the TOC thinking process: An Indian case study. International Journal of Production Economics, 186, 89–122. https://doi.org/10.1016/j.ijpe.2017.02.003</t>
+  </si>
+  <si>
+    <t>Lu, J., Laux, C., &amp; Antony, J. (2017). Lean Six Sigma leadership in higher education institutions. International Journal of Productivity and Performance Management, 66(5), 638–650. https://doi.org/10.1108/IJPPM-09-2016-0195</t>
+  </si>
+  <si>
+    <t>Maciąg, J. (2016). Uwarunkowania wdrożenia koncepcji Lean Sevice w polskich szkołach wyższych. Zarządzanie Publiczne, 1(33). https://doi.org/https://doi.org/10.4467/20843968ZP.16.005.4939</t>
+  </si>
+  <si>
+    <t>Mainardes, E. W., Alves, H., &amp; Raposo, M. (2010). An Exploratory Research on the Stakeholders of a University. Journal of Management and Strategy, 1(1), 76–88. https://doi.org/10.5430/jms.v1n1p76</t>
+  </si>
+  <si>
+    <t>Majerník, M., Daneshjo, N., Sančiová, G., &amp; Chovancová, J. (2017). Design Of Integrated Management Systems According To The Revised Iso Standards. Polish Journal of Management Studies, 15(1), 135–143. https://doi.org/10.17512/pjms.2017.15.1.13</t>
+  </si>
+  <si>
+    <t>Marcinkowska, M. (2011). Tworzenie wartości przedsiębiorstwa dla interesariuszy. Zeszyty Naukowe Uniwersytetu Szczecińskiego. Finanse, Rynki finansowe, Ubezpieczenia, 639, 855–870. http://www.wneiz.pl/nauka_wneiz/frfu/37-2011/FRFU-37-855.pdf</t>
+  </si>
+  <si>
+    <t>Maric, I. (2013). Stakeholder Analisys of Higher Education Institutions. Interdisciplinary Description of Complex Systems, 11(2), 217–226. https://doi.org/10.7906/indecs.11.2.4</t>
+  </si>
+  <si>
+    <t>McGrath, S. K., &amp; Whitty, S. J. (2017). Stakeholder defined. International Journal of Managing Projects in Business, 10(4), 721–748. https://doi.org/10.1108/IJMPB-12-2016-0097</t>
+  </si>
+  <si>
+    <t>MEiN. (2023a). Ekonomiczne Losy Absolwentów. https://www.gov.pl/web/edukacja-i-nauka/ekonomiczne-losy-absolwentow</t>
+  </si>
+  <si>
+    <t>MEiN. (2023b). Konstytucja dla Nauki. Serwis Rzeczypospolitej Polskiej. https://www.gov.pl/web/edukacja-i-nauka/konstytucja-dla-nauki-2</t>
+  </si>
+  <si>
+    <t>Miles, S. (2017). Stakeholder Theory Classification: A Theoretical and Empirical Evaluation of Definitions. Journal of Business Ethics, 142(3), 437–459. https://doi.org/10.1007/s10551-015-2741-y</t>
+  </si>
+  <si>
+    <t>Mintzberg, H. (1983). The case for corporate social responsibility. Journal of Business Strategy, 4(2), 3–15. https://doi.org/10.1108/eb039015</t>
+  </si>
+  <si>
+    <t>Mishra, A., &amp; Alzoubi, Y. I. (2023). Structured software development versus agile software development: a comparative analysis. International Journal of System Assurance Engineering and Management, 14(4), 1504–1522. https://doi.org/10.1007/s13198-023-01958-5</t>
+  </si>
+  <si>
+    <t>MNiSW. (2019a). Konstytucja dla Nauki. Prawo o szkolnictwie wyższym i nauce - komentarz. W Prawo o szkolnictwie wyższym i nauce. komentarz (Numer 7).</t>
+  </si>
+  <si>
+    <t>MNiSW. (2019b). Finansowanie uczelni w świetle przepisów Ustawy 2.0.</t>
+  </si>
+  <si>
+    <t>MNiSW. (2024). Wykaz uczelni publicznych nadzorowanych przez ministra właściwego ds. szkolnictwa wyższego i nauki - publiczne uczelnie akademickie. https://www.gov.pl/web/nauka/wykaz-uczelni-publicznych-nadzorowanych-przez-ministra-wlasciwego-ds-szkolnictwa-wyzszego-i-nauki-publiczne-uczelnie-akademickie</t>
+  </si>
+  <si>
+    <t>Mogaji, E. (2019). Strategic stakeholder communications on Twitter by UK universities. Research Agenda Working Papers, 2019(08), 104–119.</t>
+  </si>
+  <si>
+    <t>Mogaji, E., Watat, J. K., Olaleye, S. A., &amp; Ukpabi, D. (2021). Recruit, Retain and Report: UK Universities’ Strategic Communication with Stakeholders on Twitter. W Strategic Corporate Communication in the Digital Age (ss. 89–114). Emerald Publishing Limited. https://doi.org/10.1108/978-1-80071-264-520211006</t>
+  </si>
+  <si>
+    <t>Morsing, M., &amp; Schultz, M. (2006). Corporate social responsibility communication: stakeholder information, response and involvement strategies. Business Ethics: A European Review, 15(4), 323–338. https://doi.org/10.1111/j.1467-8608.2006.00460.x</t>
+  </si>
+  <si>
+    <t>Moszyk, K., &amp; Deja, M. (2023). Reduction of exceeding the guaranteed service time for external trucks at the DCT Gdańsk container terminal using a six sigma framework. International Journal of Lean Six Sigma. https://doi.org/10.1108/IJLSS-05-2022-0100</t>
+  </si>
+  <si>
+    <t>Mundra, A., Misra, S., &amp; Dhawale, C. A. (2013). Practical Scrum-Scrum Team: Way to Produce Successful and Quality Software. 2013 13th International Conference on Computational Science and Its Applications, 119–123. https://doi.org/10.1109/ICCSA.2013.25</t>
+  </si>
+  <si>
+    <t>Munshi, R. (2019). Higher Education Service Quality Model (HESQUAL) to Improve Service Quality of Higher Education Institutes. International Journal of Research in Humanities, Arts and Literature, 7(1), 181–190.</t>
+  </si>
+  <si>
+    <t>Nasim, K., Sikander, A., &amp; Tian, X. (2020). Twenty years of research on total quality management in Higher Education: A systematic literature review. Higher Education Quarterly, 74(1), 75–97. https://doi.org/10.1111/hequ.12227</t>
+  </si>
+  <si>
+    <t>Nauka w Polsce - PAP. (2020). Trzy gdańskie szkoły wyższe utworzyły Związek Uczelni im. Daniela Fahrenheita. https://naukawpolsce.pap.pl/aktualnosci/news%2C85430%2Ctrzy-gdanskie-szkoly-wyzsze-utworzyly-zwiazek-uczelni-im-daniela-fahrenheita</t>
+  </si>
+  <si>
+    <t>Neave, G. (2002). The Stakeholder Perspective Historically Explored. W HIGHER EDUCATION IN A GLOBALISING WORLD (ss. 17–37). https://doi.org/10.1007/978-94-010-0579-1_2</t>
+  </si>
+  <si>
+    <t>Nita, B. (2016). Teoria interesariuszy a informacja sprawozdawcza na przykładzie pryzmatu dokonań. 87(143), 117–128. https://doi.org/10.5604/16414381.1207439</t>
+  </si>
+  <si>
+    <t>Oates, J. (2010). Picking the Best Approach for the Problem at Hand. ISSIXSIGMA. https://www.isixsigma.com/project-selection-tracking/picking-best-approach-problem-hand/</t>
+  </si>
+  <si>
+    <t>Owlia, M. S., &amp; Aspinwall, E. M. (1997). TQM in higher education ‐ a review. International Journal of Quality &amp; Reliability Management, 14(5), 527–543. https://doi.org/10.1108/02656719710170747</t>
+  </si>
+  <si>
+    <t>Parker, D. (1995). TQS at the Victoria University of Technology. Australian Academic &amp; Research Libraries, 26(1), 25–32. https://doi.org/10.1080/00048623.1995.10754912</t>
+  </si>
+  <si>
+    <t>Pepper, M. P. J., &amp; Spedding, T. A. (2010). The evolution of lean Six Sigma. International Journal of Quality &amp; Reliability Management, 27(2), 138–155. https://doi.org/10.1108/02656711011014276</t>
+  </si>
+  <si>
+    <t>Perspektywy. (2022a). Metodologia Rankingu Szkół Wyższych Perspektywy 2022. https://ranking.perspektywy.pl/2022/article/metodologia-rankingu-uczelni-akademickich-2022r</t>
+  </si>
+  <si>
+    <t>Perspektywy. (2022b). Wyniki Rankingu Szkół Wyższych Perspektywy 2022. https://i.perspektywy.pl/pages/hak7xpl8xl/tables/akademicki2022.pdf</t>
+  </si>
+  <si>
+    <t>Petrusch, A., Roehe Vaccaro, G. L., &amp; Luchese, J. (2019). They teach, but do they apply? International Journal of Lean Six Sigma, 10(3), 743–766. https://doi.org/10.1108/IJLSS-07-2017-0089</t>
+  </si>
+  <si>
+    <t>Pillay, A., &amp; Wang, J. (2003). Modified failure mode and effects analysis using approximate reasoning. Reliability Engineering and System Safety, 79(1), 69–85. https://doi.org/10.1016/S0951-8320(02)00179-5</t>
+  </si>
+  <si>
+    <t>PKA. (2019a). Szczegółowe kryteria dokonywania oceny programowej. Profil ogólnoakademicki. Polska Komisja Akredytacyjna. https://pka.edu.pl/wp-content/uploads/2019/09/zal-2_Szczegółowe_kryteria_dokonywania_oceny_programowej.pdf</t>
+  </si>
+  <si>
+    <t>PKA. (2019b). Załącznik nr 1 do uchwały nr 66/2019 Prezydium Polskiej Komisji Akredytacyjnej z dnia 28 lutego 2019 r. z późn. zm. https://www.pka.edu.pl/dla-uczelni/wzory-raportow-samooceny/</t>
+  </si>
+  <si>
+    <t>PKA. (2021). Ocena programowa. Postępowanie oceniające. Polska Komisja Akredytacyjna. https://www.pka.edu.pl/wp-content/uploads/2022/08/I.1.a.Postępowanie_oceniajace_2021.pdf</t>
+  </si>
+  <si>
+    <t>PKA. (2023). Formy ewaluacji jakości kształcenia przez PKA. https://www.pka.edu.pl/standardy-i-procedury/formy-ewaluacje-jakosci-ksztalcenia-przez-pka/</t>
+  </si>
+  <si>
+    <t>Popadynets, I., Andrusiv, U., Shtohryn, M., &amp; Galtsova, O. (2020). The effect of cooperation between universities and stakeholders: Evidence from Ukraine. International Journal of Data and Network Science, 199–212. https://doi.org/10.5267/j.ijdns.2020.1.001</t>
+  </si>
+  <si>
+    <t>Próchnicka, M., &amp; Tutko, M. (2015). Doskonalenie wewnętrznych systemów zapewnienia jakości kształcenia w szkołach wyższych. Wybrane aspekty zarządzania jakością usług, 109. https://www.researchgate.net/profile/Joanna-Dziadkowiec/publication/281066626_Wybrane_aspekty_zarzadzania_jakoscia_uslug/links/55d3517408ae0a3417226495/Wybrane-aspekty-zarzadzania-jakoscia-uslug.pdf#page=110</t>
+  </si>
+  <si>
+    <t>Quezada, R. A. G. (2011). Identificación de los stakeholders de las universidades. Revista de Ciencias Sociales, 17(3), 486–499.</t>
+  </si>
+  <si>
+    <t>RAD-on. (2024). INSTYTUCJE SYSTEMU SZKOLNICTWA WYŻSZEGO I NAUKI. https://radon.nauka.gov.pl/dane/instytucje-systemu-szkolnictwa-wyzszego-i-nauki</t>
+  </si>
+  <si>
+    <t>Radko, N. (2022). Entrepreneurial university stakeholders and their contribution to knowledge and technologies transfer. Audretsch D, Belitski M, Rejeb Net al.(eds) Developments in Entrepreneurial Finance and Technology. Cheltenham: Edward Elgar Publishing, 90–116.</t>
+  </si>
+  <si>
+    <t>Radwan, J. (2009). Powszechny Model Oceny CAF („ Common Assessment Framework”) jako narzędzie samooceny i doskonalenia urzędów administracji publicznej. Standardy Bibilioteczne, 58. https://ruj.uj.edu.pl/xmlui/bitstream/handle/item/5260/radwan_powszechny_model_oceny_caf_2010.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>Raharjo, T. H., Mulyono, K. B., Ismiyati, I., &amp; Jaenudin, A. (2023). HEISQUAL – ACSI – IPA – PGCV: Synthesis of higher education service satisfaction measurements. Asian Management and Business Review, 121–137. https://doi.org/10.20885/AMBR.vol3.iss2.art2</t>
+  </si>
+  <si>
+    <t>Rajhans, K. (2018). Effective communication management: A key to stakeholder relationship management in project-based organizations. IUP Journal of Soft Skills, 12(4), 47–66.</t>
+  </si>
+  <si>
+    <t>Reichheld, F. F. (2003). The one number you need to grow. Harvard Business Review, 81(12), 46–54. https://hbr.org/2003/12/the-one-number-you-need-to-grow</t>
+  </si>
+  <si>
+    <t>Reinertsen, D. G., &amp; Smith, P. G. (1991). The strategist’s role in shortening product development. Journal of Business Strategy, 12(4), 18–22.</t>
+  </si>
+  <si>
+    <t>Rocki, M. (2018). Jakość kształcenia a ekonomiczne losy absolwentów: Analiza przypadków. Nauka i Szkolnictwo Wyższe, 1(51), 219–239. https://doi.org/10.14746/nisw.2018.1.11</t>
+  </si>
+  <si>
+    <t>Rocki, M. (2021). The Wage Premium on Higher Education: Evidence from the Polish Graduate Tracking System. Gospodarka Narodowa, 307(3), 47–61. https://doi.org/10.33119/GN/140647</t>
+  </si>
+  <si>
+    <t>Rogers, M., Baker, P., Harrington, I., Johnson, A., Bird, J., &amp; Bible, V. (2022). Stakeholder engagement with funding bodies, steering committees and surveys: Benefits for education projects. Issues in Educational Research, 32(3), 1131–1152.</t>
+  </si>
+  <si>
+    <t>Ronalter, L. M., Poltronieri, C. F., &amp; Gerolamo, M. C. (2023). ISO management system standards in the light of corporate sustainability: a bibliometric analysis. The TQM Journal, 35(9), 256–298. https://doi.org/10.1108/TQM-09-2022-0279</t>
+  </si>
+  <si>
+    <t>Sá, J. C., Vaz, S., Carvalho, O., Lima, V., Morgado, L., Fonseca, L., Doiro, M., &amp; Santos, G. (2022). A model of integration ISO 9001 with Lean six sigma and main benefits achieved. Total Quality Management &amp; Business Excellence, 33(1–2), 218–242. https://doi.org/10.1080/14783363.2020.1829969</t>
+  </si>
+  <si>
+    <t>Sarkar, D., Jha, K. N., &amp; Patel, S. (2021). Critical chain project management for a highway construction project with a focus on theory of constraints. International Journal of Construction Management, 21(2), 194–207. https://doi.org/10.1080/15623599.2018.1512031</t>
+  </si>
+  <si>
+    <t>Scaled Agile Inc. (2023). SAFe 6.0 - Core Values. https://scaledagileframework.com/safe-core-values/</t>
+  </si>
+  <si>
+    <t>Schroeder, R. G., Linderman, K., Liedtke, C., &amp; Choo, A. S. (2008). Six Sigma: Definition and underlying theory⋆. Journal of Operations Management, 26(4), 536–554. https://doi.org/10.1016/j.jom.2007.06.007</t>
+  </si>
+  <si>
+    <t>Selznick, P. (1948). Foundations of the theory of organization. American sociological review, 13(1), 25–35.</t>
+  </si>
+  <si>
+    <t>Shafer, S. M., Smith, H. J., &amp; Linder, J. C. (2005). The power of business models. Business Horizons, 48(3), 199–207. https://doi.org/10.1016/j.bushor.2004.10.014</t>
+  </si>
+  <si>
+    <t>Shah, R., &amp; Ward, P. T. (2003). Lean manufacturing: context, practice bundles, and performance. Journal of Operations Management, 21(2), 129–149. https://doi.org/10.1016/S0272-6963(02)00108-0</t>
+  </si>
+  <si>
+    <t>Silva, C., Magano, J., Moskalenko, A., Nogueira, T., Dinis, M. A. P., &amp; Pedrosa e Sousa, H. F. (2020). Sustainable Management Systems Standards (SMSS): Structures, Roles, and Practices in Corporate Sustainability. Sustainability, 12(15), 5892. https://doi.org/10.3390/su12155892</t>
+  </si>
+  <si>
+    <t>Sirvanci, M. B. (2004). Critical issues for TQM implementation in higher education. The TQM Magazine, 16(6), 382–386. https://doi.org/10.1108/09544780410563293</t>
+  </si>
+  <si>
+    <t>Slabá, M. (2015). Stakeholder Groups of Public and Private Universities in the Czech Republic – Identification, Categorization and Prioritization. Review of Economic Perspectives, 15(3), 305–326. https://doi.org/10.1515/revecp-2015-0022</t>
+  </si>
+  <si>
+    <t>Small, L., Shacklock, K., &amp; Marchant, T. (2018). Employability: a contemporary review for higher education stakeholders. Journal of Vocational Education &amp; Training, 70(1), 148–166. https://doi.org/10.1080/13636820.2017.1394355</t>
+  </si>
+  <si>
+    <t>Sparr, J. L. (2018). Paradoxes in Organizational Change: The Crucial Role of Leaders’ Sensegiving. Journal of Change Management, 18(2), 162–180. https://doi.org/10.1080/14697017.2018.1446696</t>
+  </si>
+  <si>
+    <t>Stewart, H. (2010). Do happy staff make for happy customers and profitable companies. Journal of Direct, Data and Digital Marketing Practice, 11(4), 275–280. https://doi.org/10.1057/dddmp.2010.9</t>
+  </si>
+  <si>
+    <t>Sułkowski, Ł. (2014). Czy kultura jakości w uczelni wyższej to to samo co kultura akademicka? Przedsiębiorczość i Zarządzanie, t. XV, z. 8, cz. I: „Wybrane problemy zarządzania rozwojem regionalnym”, 365–378.</t>
+  </si>
+  <si>
+    <t>Sułkowski, Ł. (2016). Academic Culture from the Perspective of Polish Universities. Przedsiębiorczość I Zarządzanie, XVII(2), 7–21. http://piz.san.edu.pl/docs/e-XVII-2-1.pdf</t>
+  </si>
+  <si>
+    <t>Sunder M., V., &amp; Antony, J. (2018). A conceptual Lean Six Sigma framework for quality excellence in higher education institutions. International Journal of Quality &amp; Reliability Management, 35(4), 857–874. https://doi.org/10.1108/IJQRM-01-2017-0002</t>
+  </si>
+  <si>
+    <t>Sunder M., V., &amp; Mahalingam, S. (2018). An empirical investigation of implementing Lean Six Sigma in Higher Education Institutions. International Journal of Quality &amp; Reliability Management, 35(10), 2157–2180. https://doi.org/10.1108/IJQRM-05-2017-0098</t>
+  </si>
+  <si>
+    <t>Sureshchandar, G. S., Rajendran, C., &amp; Anantharaman, R. N. (2001). A holistic model for total quality service. International Journal of Service Industry Management, 12(4), 378–412. https://doi.org/10.1108/09564230110405299</t>
+  </si>
+  <si>
+    <t>Sutherland, J., &amp; Schwaber, K. (2011). The scrum papers. Nuts, bolts and origins of an Agile process.</t>
+  </si>
+  <si>
+    <t>Swank, C. K. (2003). The Lean Service Machine. Harvard Business Review, 81(10).</t>
+  </si>
+  <si>
+    <t>Szczepańska, K. (2011). Zarządzanie jakością. W dążeniu do doskonałości. CH Beck.</t>
+  </si>
+  <si>
+    <t>Szefler, J. P., &amp; Zieliński, G. (2013). Doskonalenie jakości usług edukacyjnych poprzez ocenę wyniku działalności instytucji akademickiej. W Uwarunkowania Sukecu Organizacji (ss. 274–288). unknown.</t>
+  </si>
+  <si>
+    <t>Talib, F., Rahman, Z., &amp; Qureshi, M. N. (2011). Analysis of interaction among the barriers to total quality management implementation using interpretive structural modeling approach. Benchmarking: An International Journal, 18(4), 563–587. https://doi.org/10.1108/14635771111147641</t>
+  </si>
+  <si>
+    <t>Teehan, R., &amp; Tucker, W. (2010). A simplified lean method to capture customer voice. International Journal of Quality and Service Sciences, 2(2), 175–188. https://doi.org/10.1108/17566691011057348</t>
+  </si>
+  <si>
+    <t>Teeroovengadum, V., Kamalanabhan, T. J., &amp; Seebaluck, A. K. (2016). Measuring service quality in higher education. Quality Assurance in Education, 24(2), 244–258. https://doi.org/10.1108/QAE-06-2014-0028</t>
+  </si>
+  <si>
+    <t>Thesing, T., Feldmann, C., &amp; Burchardt, M. (2021). Agile versus Waterfall Project Management: Decision Model for Selecting the Appropriate Approach to a Project. Procedia Computer Science, 181, 746–756. https://doi.org/10.1016/j.procs.2021.01.227</t>
+  </si>
+  <si>
+    <t>Thijs, Nick; Staes, P. (2014). CAF in the Education Sector. Successful stories of performance improvement. http://caf.eipa.eu/files/uploads/20210706115454_CAFintheEducation-Successfulstoriesofperformanceimprovement.pdf</t>
+  </si>
+  <si>
+    <t>Thompson, G., &amp; Glasø, L. (2015). Situational leadership theory: a test from three perspectives. Leadership &amp; Organization Development Journal, 36(5), 527–544. https://doi.org/10.1108/LODJ-10-2013-0130</t>
+  </si>
+  <si>
+    <t>Tortorella, G., Narayanamurthy, G., Godinho Filho, M., Portioli Staudacher, A., &amp; Mac Cawley, A. F. (2021). Pandemic’s effect on the relationship between lean implementation and service performance. Journal of Service Theory and Practice, 31(2), 203–224. https://doi.org/10.1108/JSTP-07-2020-0182</t>
+  </si>
+  <si>
+    <t>Tran, N. Q., Carden, L. L., &amp; Zhang, J. Z. (2022). Work from anywhere: remote stakeholder management and engagement. Personnel Review, 51(8), 2021–2038. https://doi.org/10.1108/PR-11-2021-0808</t>
+  </si>
+  <si>
+    <t>Turkulainen, V., Aaltonen, K., &amp; Lohikoski, P. (2015). Managing Project Stakeholder Communication: The Qstock Festival Case. Project Management Journal, 46(6), 74–91. https://doi.org/10.1002/pmj.21547</t>
+  </si>
+  <si>
+    <t>Ulewicz, R. (2017). The role of stakeholders in quality assurance in higher education. Human Resources Management \&amp; Ergonomics, 11(1).</t>
+  </si>
+  <si>
+    <t>Urbanowska-Sojkin, E. (2016). Paradoksy w zarządzaniu strategicznym przedsiębiorstwami (Paradoxes in strategic management of companies). Prace Naukowe Uniwersytetu Ekonomicznego we Wrocławiu, 420. https://doi.org/10.15611/pn.2016.420.31</t>
+  </si>
+  <si>
+    <t>van Doorn, J., Leeflang, P. S. H., &amp; Tijs, M. (2013). Satisfaction as a predictor of future performance: A replication. International Journal of Research in Marketing, 30(3), 314–318. https://doi.org/10.1016/j.ijresmar.2013.04.002</t>
+  </si>
+  <si>
+    <t>Verschueren, N., Van Dessel, J., Verslyppe, A., Schoensetters, Y., &amp; Baelmans, M. (2023). A Maturity Matrix Model to Strengthen the Quality Cultures in Higher Education. Education Sciences, 13(2), 123. https://doi.org/10.3390/educsci13020123</t>
+  </si>
+  <si>
+    <t>Vijaya Sunder, M. (2016). Lean Six Sigma in higher education institutions. International Journal of Quality and Service Sciences, 8(2), 159–178. https://doi.org/10.1108/IJQSS-04-2015-0043</t>
+  </si>
+  <si>
+    <t>Wawak, T. (2015). Ewolucja koncepcji zarządzania w szkołach wyższych w kierunku wymogów XXI wieku. W J. Dziadkowiec &amp; T. Sikory (Red.), Wybrane aspekty zarządzania jakością usług (s. 199). Uniwersytet Ekonomiczny w Krakowie.</t>
+  </si>
+  <si>
+    <t>Wawak, T. (2019). Doskonalenie jakości zarządzania w szkołach wyższych. Wydawnictwo Uniwersytetu Jagiellońskiego.</t>
+  </si>
+  <si>
+    <t>Webber, R. (2022). Unlocking Agile’s Missed Potential. W Unlocking Agile’s Missed Potential. Wiley. https://doi.org/10.1002/9781119849117</t>
+  </si>
+  <si>
+    <t>Wibisono, E. (2018). The new management system ISO 21001: 2018: What and why educational organizations should adopt it. Proceeding of 11th International Seminar on Industrial Engineering and Management, 66–73. https://www.researchgate.net/publication/334549352</t>
+  </si>
+  <si>
+    <t>Wilbers, S., &amp; Brankovic, J. (2021). The emergence of university rankings: a historical‑sociological account. Higher Education. https://doi.org/10.1007/s10734-021-00776-7</t>
+  </si>
+  <si>
+    <t>Womack, J. P., &amp; Jones, D. T. (1997). Lean Thinking—Banish Waste and Create Wealth in your Corporation. Journal of the Operational Research Society, 48(11), 1148–1148. https://doi.org/10.1038/sj.jors.2600967</t>
+  </si>
+  <si>
+    <t>Wood, M., &amp; Su, F. (2019). Parents as “stakeholders” and their conceptions of teaching excellence in English higher education. International Journal of Comparative Education and Development, 21(2), 99–111. https://doi.org/10.1108/IJCED-05-2018-0010</t>
+  </si>
+  <si>
+    <t>Zakhem, A. (2008). Stakeholder Management Capability: A Discourse–Theoretical Approach. Journal of Business Ethics, 79(4), 395–405. https://doi.org/10.1007/s10551-007-9405-5</t>
+  </si>
+  <si>
+    <t>Zu, X., Fredendall, L. D., &amp; Douglas, T. J. (2008). The evolving theory of quality management: The role of Six Sigma. Journal of Operations Management, 26(5), 630–650. https://doi.org/10.1016/j.jom.2008.02.001</t>
+  </si>
+  <si>
+    <t>Zucker, L. G. (1987). Institutional theories of organization. Annual review of sociology, 13(1), 443–464.</t>
   </si>
 </sst>
 </file>
@@ -1014,6 +1654,5068 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BBFBCD-A256-424C-AD81-68248E77DB0B}">
+  <dimension ref="A1:B409"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="A409" sqref="A409"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>221</v>
+      </c>
+      <c r="B221" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>222</v>
+      </c>
+      <c r="B222" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>223</v>
+      </c>
+      <c r="B223" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>224</v>
+      </c>
+      <c r="B224" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>226</v>
+      </c>
+      <c r="B226" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>227</v>
+      </c>
+      <c r="B227" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>228</v>
+      </c>
+      <c r="B228" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>229</v>
+      </c>
+      <c r="B229" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>230</v>
+      </c>
+      <c r="B230" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>231</v>
+      </c>
+      <c r="B231" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>232</v>
+      </c>
+      <c r="B232" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>233</v>
+      </c>
+      <c r="B233" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>234</v>
+      </c>
+      <c r="B234" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>235</v>
+      </c>
+      <c r="B235" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>236</v>
+      </c>
+      <c r="B236" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>237</v>
+      </c>
+      <c r="B237" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>238</v>
+      </c>
+      <c r="B238" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>239</v>
+      </c>
+      <c r="B239" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>240</v>
+      </c>
+      <c r="B240" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>241</v>
+      </c>
+      <c r="B241" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>242</v>
+      </c>
+      <c r="B242" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>243</v>
+      </c>
+      <c r="B243" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>244</v>
+      </c>
+      <c r="B244" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>245</v>
+      </c>
+      <c r="B245" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>246</v>
+      </c>
+      <c r="B246" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>247</v>
+      </c>
+      <c r="B247" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>248</v>
+      </c>
+      <c r="B248" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>249</v>
+      </c>
+      <c r="B249" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>250</v>
+      </c>
+      <c r="B250" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>251</v>
+      </c>
+      <c r="B251" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>252</v>
+      </c>
+      <c r="B252" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>253</v>
+      </c>
+      <c r="B253" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>255</v>
+      </c>
+      <c r="B255" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>256</v>
+      </c>
+      <c r="B256" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>257</v>
+      </c>
+      <c r="B257" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>258</v>
+      </c>
+      <c r="B258" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>259</v>
+      </c>
+      <c r="B259" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>260</v>
+      </c>
+      <c r="B260" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>261</v>
+      </c>
+      <c r="B261" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>262</v>
+      </c>
+      <c r="B262" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>263</v>
+      </c>
+      <c r="B263" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>264</v>
+      </c>
+      <c r="B264" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>265</v>
+      </c>
+      <c r="B265" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>266</v>
+      </c>
+      <c r="B266" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>267</v>
+      </c>
+      <c r="B267" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>268</v>
+      </c>
+      <c r="B268" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>269</v>
+      </c>
+      <c r="B269" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>270</v>
+      </c>
+      <c r="B270" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>271</v>
+      </c>
+      <c r="B271" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>272</v>
+      </c>
+      <c r="B272" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>273</v>
+      </c>
+      <c r="B273" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>274</v>
+      </c>
+      <c r="B274" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>275</v>
+      </c>
+      <c r="B275" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>276</v>
+      </c>
+      <c r="B276" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>277</v>
+      </c>
+      <c r="B277" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>278</v>
+      </c>
+      <c r="B278" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>279</v>
+      </c>
+      <c r="B279" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>280</v>
+      </c>
+      <c r="B280" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>281</v>
+      </c>
+      <c r="B281" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>282</v>
+      </c>
+      <c r="B282" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>283</v>
+      </c>
+      <c r="B283" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>284</v>
+      </c>
+      <c r="B284" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>285</v>
+      </c>
+      <c r="B285" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>286</v>
+      </c>
+      <c r="B286" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>287</v>
+      </c>
+      <c r="B287" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>288</v>
+      </c>
+      <c r="B288" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>289</v>
+      </c>
+      <c r="B289" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>290</v>
+      </c>
+      <c r="B290" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>291</v>
+      </c>
+      <c r="B291" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>292</v>
+      </c>
+      <c r="B292" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>293</v>
+      </c>
+      <c r="B293" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>294</v>
+      </c>
+      <c r="B294" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>295</v>
+      </c>
+      <c r="B295" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>296</v>
+      </c>
+      <c r="B296" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>297</v>
+      </c>
+      <c r="B297" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>298</v>
+      </c>
+      <c r="B298" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>299</v>
+      </c>
+      <c r="B299" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>300</v>
+      </c>
+      <c r="B300" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>301</v>
+      </c>
+      <c r="B301" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>302</v>
+      </c>
+      <c r="B302" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>303</v>
+      </c>
+      <c r="B303" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>304</v>
+      </c>
+      <c r="B304" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>305</v>
+      </c>
+      <c r="B305" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>306</v>
+      </c>
+      <c r="B306" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>307</v>
+      </c>
+      <c r="B307" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>309</v>
+      </c>
+      <c r="B309" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>310</v>
+      </c>
+      <c r="B310" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>311</v>
+      </c>
+      <c r="B311" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>312</v>
+      </c>
+      <c r="B312" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>314</v>
+      </c>
+      <c r="B314" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>315</v>
+      </c>
+      <c r="B315" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>316</v>
+      </c>
+      <c r="B316" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>317</v>
+      </c>
+      <c r="B317" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>318</v>
+      </c>
+      <c r="B318" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>319</v>
+      </c>
+      <c r="B319" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>320</v>
+      </c>
+      <c r="B320" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>321</v>
+      </c>
+      <c r="B321" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>322</v>
+      </c>
+      <c r="B322" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>323</v>
+      </c>
+      <c r="B323" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>324</v>
+      </c>
+      <c r="B324" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>325</v>
+      </c>
+      <c r="B325" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>326</v>
+      </c>
+      <c r="B326" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>327</v>
+      </c>
+      <c r="B327" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>328</v>
+      </c>
+      <c r="B328" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>329</v>
+      </c>
+      <c r="B329" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>330</v>
+      </c>
+      <c r="B330" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>331</v>
+      </c>
+      <c r="B331" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>332</v>
+      </c>
+      <c r="B332" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>333</v>
+      </c>
+      <c r="B333" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>334</v>
+      </c>
+      <c r="B334" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>335</v>
+      </c>
+      <c r="B335" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>336</v>
+      </c>
+      <c r="B336" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>337</v>
+      </c>
+      <c r="B337" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>338</v>
+      </c>
+      <c r="B338" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>339</v>
+      </c>
+      <c r="B339" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>340</v>
+      </c>
+      <c r="B340" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>341</v>
+      </c>
+      <c r="B341" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>342</v>
+      </c>
+      <c r="B342" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>343</v>
+      </c>
+      <c r="B343" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>344</v>
+      </c>
+      <c r="B344" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>345</v>
+      </c>
+      <c r="B345" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>346</v>
+      </c>
+      <c r="B346" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>347</v>
+      </c>
+      <c r="B347" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>348</v>
+      </c>
+      <c r="B348" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>349</v>
+      </c>
+      <c r="B349" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>350</v>
+      </c>
+      <c r="B350" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>351</v>
+      </c>
+      <c r="B351" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>352</v>
+      </c>
+      <c r="B352" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>353</v>
+      </c>
+      <c r="B353" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>354</v>
+      </c>
+      <c r="B354" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>355</v>
+      </c>
+      <c r="B355" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>356</v>
+      </c>
+      <c r="B356" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>357</v>
+      </c>
+      <c r="B357" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>358</v>
+      </c>
+      <c r="B358" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>359</v>
+      </c>
+      <c r="B359" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>360</v>
+      </c>
+      <c r="B360" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>361</v>
+      </c>
+      <c r="B361" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>362</v>
+      </c>
+      <c r="B362" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>363</v>
+      </c>
+      <c r="B363" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>364</v>
+      </c>
+      <c r="B364" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>365</v>
+      </c>
+      <c r="B365" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>366</v>
+      </c>
+      <c r="B366" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>367</v>
+      </c>
+      <c r="B367" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>368</v>
+      </c>
+      <c r="B368" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>369</v>
+      </c>
+      <c r="B369" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>370</v>
+      </c>
+      <c r="B370" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>371</v>
+      </c>
+      <c r="B371" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>372</v>
+      </c>
+      <c r="B372" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>373</v>
+      </c>
+      <c r="B373" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>374</v>
+      </c>
+      <c r="B374" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>375</v>
+      </c>
+      <c r="B375" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>376</v>
+      </c>
+      <c r="B376" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>377</v>
+      </c>
+      <c r="B377" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>378</v>
+      </c>
+      <c r="B378" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>379</v>
+      </c>
+      <c r="B379" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>380</v>
+      </c>
+      <c r="B380" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>381</v>
+      </c>
+      <c r="B381" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>382</v>
+      </c>
+      <c r="B382" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>383</v>
+      </c>
+      <c r="B383" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>384</v>
+      </c>
+      <c r="B384" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>385</v>
+      </c>
+      <c r="B385" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>386</v>
+      </c>
+      <c r="B386" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>387</v>
+      </c>
+      <c r="B387" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>388</v>
+      </c>
+      <c r="B388" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>389</v>
+      </c>
+      <c r="B389" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>390</v>
+      </c>
+      <c r="B390" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>391</v>
+      </c>
+      <c r="B391" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>392</v>
+      </c>
+      <c r="B392" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>393</v>
+      </c>
+      <c r="B393" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>394</v>
+      </c>
+      <c r="B394" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>395</v>
+      </c>
+      <c r="B395" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>396</v>
+      </c>
+      <c r="B396" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>397</v>
+      </c>
+      <c r="B397" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>398</v>
+      </c>
+      <c r="B398" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>399</v>
+      </c>
+      <c r="B399" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>400</v>
+      </c>
+      <c r="B400" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>401</v>
+      </c>
+      <c r="B401" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>402</v>
+      </c>
+      <c r="B402" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>403</v>
+      </c>
+      <c r="B403" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>404</v>
+      </c>
+      <c r="B404" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>405</v>
+      </c>
+      <c r="B405" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>406</v>
+      </c>
+      <c r="B406" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>407</v>
+      </c>
+      <c r="B407" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>408</v>
+      </c>
+      <c r="B408" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>409</v>
+      </c>
+      <c r="B409" t="s">
+        <v>436</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FEA447-EA32-469C-96EC-90E026FEAD1F}">
+  <dimension ref="A1:B220"/>
+  <sheetViews>
+    <sheetView topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>194</v>
+      </c>
+      <c r="B194" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>195</v>
+      </c>
+      <c r="B195" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>196</v>
+      </c>
+      <c r="B196" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>197</v>
+      </c>
+      <c r="B197" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>198</v>
+      </c>
+      <c r="B198" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>199</v>
+      </c>
+      <c r="B199" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>200</v>
+      </c>
+      <c r="B200" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>201</v>
+      </c>
+      <c r="B201" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>202</v>
+      </c>
+      <c r="B202" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>203</v>
+      </c>
+      <c r="B203" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>204</v>
+      </c>
+      <c r="B204" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>207</v>
+      </c>
+      <c r="B207" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>208</v>
+      </c>
+      <c r="B208" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>209</v>
+      </c>
+      <c r="B209" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>210</v>
+      </c>
+      <c r="B210" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>211</v>
+      </c>
+      <c r="B211" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>212</v>
+      </c>
+      <c r="B212" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>213</v>
+      </c>
+      <c r="B213" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>214</v>
+      </c>
+      <c r="B214" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>215</v>
+      </c>
+      <c r="B215" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>216</v>
+      </c>
+      <c r="B216" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>217</v>
+      </c>
+      <c r="B217" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>218</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>219</v>
+      </c>
+      <c r="B219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>220</v>
+      </c>
+      <c r="B220" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B146"/>
   <sheetViews>
@@ -2195,1779 +7897,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FEA447-EA32-469C-96EC-90E026FEAD1F}">
-  <dimension ref="A1:B220"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A53">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A68">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A69">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A70">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A74">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A75">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A76">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A81">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A87">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A88">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A89">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A90">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A91">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A92">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A102">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A103">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A104">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A105">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A106">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A107">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A108">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A111">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A112">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A113">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A114">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A115">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A116">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A117">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A118">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A119">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A120">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A121">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A122">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A123">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A124">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A125">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A126">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A127">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A128">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A129">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A130">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A131">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A132">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A133">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A134">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A135">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A136">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A137">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A138">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A139">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A140">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A141">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A142">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A143">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A144">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A145">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A146">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A147">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A148">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A149">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A150">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A151">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A152">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A153">
-        <v>153</v>
-      </c>
-      <c r="B153" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A154">
-        <v>154</v>
-      </c>
-      <c r="B154" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A155">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A156">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A157">
-        <v>157</v>
-      </c>
-      <c r="B157" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A158">
-        <v>158</v>
-      </c>
-      <c r="B158" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A159">
-        <v>159</v>
-      </c>
-      <c r="B159" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A160">
-        <v>160</v>
-      </c>
-      <c r="B160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A161">
-        <v>161</v>
-      </c>
-      <c r="B161" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A162">
-        <v>162</v>
-      </c>
-      <c r="B162" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A163">
-        <v>163</v>
-      </c>
-      <c r="B163" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A164">
-        <v>164</v>
-      </c>
-      <c r="B164" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A165">
-        <v>165</v>
-      </c>
-      <c r="B165" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A166">
-        <v>166</v>
-      </c>
-      <c r="B166" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A167">
-        <v>167</v>
-      </c>
-      <c r="B167" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A168">
-        <v>168</v>
-      </c>
-      <c r="B168" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A169">
-        <v>169</v>
-      </c>
-      <c r="B169" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A170">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A171">
-        <v>171</v>
-      </c>
-      <c r="B171" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A172">
-        <v>172</v>
-      </c>
-      <c r="B172" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A173">
-        <v>173</v>
-      </c>
-      <c r="B173" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A174">
-        <v>174</v>
-      </c>
-      <c r="B174" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A175">
-        <v>175</v>
-      </c>
-      <c r="B175" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A176">
-        <v>176</v>
-      </c>
-      <c r="B176" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A177">
-        <v>177</v>
-      </c>
-      <c r="B177" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A178">
-        <v>178</v>
-      </c>
-      <c r="B178" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A179">
-        <v>179</v>
-      </c>
-      <c r="B179" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A180">
-        <v>180</v>
-      </c>
-      <c r="B180" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A181">
-        <v>181</v>
-      </c>
-      <c r="B181" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A182">
-        <v>182</v>
-      </c>
-      <c r="B182" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A183">
-        <v>183</v>
-      </c>
-      <c r="B183" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A184">
-        <v>184</v>
-      </c>
-      <c r="B184" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A185">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A186">
-        <v>186</v>
-      </c>
-      <c r="B186" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A187">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A188">
-        <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A189">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A190">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A191">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A192">
-        <v>192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A193">
-        <v>193</v>
-      </c>
-      <c r="B193" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A194">
-        <v>194</v>
-      </c>
-      <c r="B194" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A195">
-        <v>195</v>
-      </c>
-      <c r="B195" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A196">
-        <v>196</v>
-      </c>
-      <c r="B196" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A197">
-        <v>197</v>
-      </c>
-      <c r="B197" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A198">
-        <v>198</v>
-      </c>
-      <c r="B198" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A199">
-        <v>199</v>
-      </c>
-      <c r="B199" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A200">
-        <v>200</v>
-      </c>
-      <c r="B200" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A201">
-        <v>201</v>
-      </c>
-      <c r="B201" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A202">
-        <v>202</v>
-      </c>
-      <c r="B202" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A203">
-        <v>203</v>
-      </c>
-      <c r="B203" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A204">
-        <v>204</v>
-      </c>
-      <c r="B204" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A205">
-        <v>205</v>
-      </c>
-      <c r="B205" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A206">
-        <v>206</v>
-      </c>
-      <c r="B206" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A207">
-        <v>207</v>
-      </c>
-      <c r="B207" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A208">
-        <v>208</v>
-      </c>
-      <c r="B208" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A209">
-        <v>209</v>
-      </c>
-      <c r="B209" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A210">
-        <v>210</v>
-      </c>
-      <c r="B210" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A211">
-        <v>211</v>
-      </c>
-      <c r="B211" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A212">
-        <v>212</v>
-      </c>
-      <c r="B212" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A213">
-        <v>213</v>
-      </c>
-      <c r="B213" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A214">
-        <v>214</v>
-      </c>
-      <c r="B214" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A215">
-        <v>215</v>
-      </c>
-      <c r="B215" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A216">
-        <v>216</v>
-      </c>
-      <c r="B216" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A217">
-        <v>217</v>
-      </c>
-      <c r="B217" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A218">
-        <v>218</v>
-      </c>
-      <c r="B218" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A219">
-        <v>219</v>
-      </c>
-      <c r="B219" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A220">
-        <v>220</v>
-      </c>
-      <c r="B220" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>